--- a/src/assets/importBill.xlsx
+++ b/src/assets/importBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan\codes\unicode\SVKM_Bill_Tracking_Frontend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB23CAF-7230-4F4F-8002-2345FBDA7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8680D37-DD13-43D9-896F-8F97AEC044F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bills Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Sr no</t>
   </si>
@@ -317,228 +317,6 @@
   </si>
   <si>
     <t>MIRO Amt</t>
-  </si>
-  <si>
-    <t>HVAC Work</t>
-  </si>
-  <si>
-    <t>Vittoria Designs Pvt Ltd</t>
-  </si>
-  <si>
-    <t>27ABLFM4935A1Z0</t>
-  </si>
-  <si>
-    <t>2025-Non-Specified person U/S 206AB</t>
-  </si>
-  <si>
-    <t>PAN OPERATIVE/N.A.</t>
-  </si>
-  <si>
-    <t>8000014636</t>
-  </si>
-  <si>
-    <t>VE/24-25/021</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>06-01-2025</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>21-10-2024</t>
-  </si>
-  <si>
-    <t>S/1234</t>
-  </si>
-  <si>
-    <t>05-11-2024</t>
-  </si>
-  <si>
-    <t>57,860.00</t>
-  </si>
-  <si>
-    <t>07-11-2024</t>
-  </si>
-  <si>
-    <t>Thirugnanam R</t>
-  </si>
-  <si>
-    <t>31-12-2025</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>09-11-2024</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>04-08-2025</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>11-01-2026</t>
-  </si>
-  <si>
-    <t>04-01-2026</t>
-  </si>
-  <si>
-    <t>Parshram Pawar</t>
-  </si>
-  <si>
-    <t>14-01-2026</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>16-01-2025</t>
-  </si>
-  <si>
-    <t>Satish Alhat</t>
-  </si>
-  <si>
-    <t>17-01-2025</t>
-  </si>
-  <si>
-    <t>Bhavik</t>
-  </si>
-  <si>
-    <t>08-08-2025</t>
-  </si>
-  <si>
-    <t>1000330159</t>
-  </si>
-  <si>
-    <t>4,08,178.00</t>
-  </si>
-  <si>
-    <t>Harshada Kadam</t>
-  </si>
-  <si>
-    <t>20-01-2025</t>
-  </si>
-  <si>
-    <t>Medha Rajwade</t>
-  </si>
-  <si>
-    <t>22-01-2025</t>
-  </si>
-  <si>
-    <t>23-01-2025</t>
-  </si>
-  <si>
-    <t>21-01-2025</t>
-  </si>
-  <si>
-    <t>SV138</t>
-  </si>
-  <si>
-    <t>01-03-2025</t>
-  </si>
-  <si>
-    <t>Jyotsna-Retention issue</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>SRI ASHOKA MARKETING SERVICES</t>
-  </si>
-  <si>
-    <t>36ABFPB5910L1ZS</t>
-  </si>
-  <si>
-    <t>2024-Non-Specified person U/S 206AB</t>
-  </si>
-  <si>
-    <t>7000024135</t>
-  </si>
-  <si>
-    <t>SIT 9812</t>
-  </si>
-  <si>
-    <t>25-12-2024</t>
-  </si>
-  <si>
-    <t>18-12-2024</t>
-  </si>
-  <si>
-    <t>26-12-2025</t>
-  </si>
-  <si>
-    <t>Girls hostel</t>
-  </si>
-  <si>
-    <t>xys</t>
-  </si>
-  <si>
-    <t>02-01-2026</t>
-  </si>
-  <si>
-    <t>5000330048</t>
-  </si>
-  <si>
-    <t>05-01-2026</t>
-  </si>
-  <si>
-    <t>2,09,829.00</t>
-  </si>
-  <si>
-    <t>Rashmi Yamjal</t>
-  </si>
-  <si>
-    <t>06-01-2026</t>
-  </si>
-  <si>
-    <t>30-12-2025</t>
-  </si>
-  <si>
-    <t>Santosh Deshpande</t>
-  </si>
-  <si>
-    <t>09-01-2026</t>
-  </si>
-  <si>
-    <t>11-01-2025</t>
-  </si>
-  <si>
-    <t>12-01-2025</t>
-  </si>
-  <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>18-01-2025</t>
-  </si>
-  <si>
-    <t>SV115</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Milan1</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t>2,09,829.01</t>
   </si>
 </sst>
 </file>
@@ -614,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}" name="Table2" displayName="Table2" ref="A1:CU3" totalsRowShown="0">
-  <autoFilter ref="A1:CU3" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}" name="Table2" displayName="Table2" ref="A1:CU2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:CU2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}"/>
   <tableColumns count="99">
     <tableColumn id="1" xr3:uid="{C20F23A7-8BB1-AF4B-954E-6399C6DC33F6}" name="Sr no"/>
     <tableColumn id="2" xr3:uid="{38FD8125-CB91-9E43-81E4-478FB9E0D37F}" name="Nature of Work"/>
@@ -1043,98 +821,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU4"/>
+  <dimension ref="A1:CU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="13" width="15.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="33.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" customWidth="1"/>
-    <col min="19" max="20" width="23.33203125" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" customWidth="1"/>
-    <col min="22" max="22" width="38.33203125" customWidth="1"/>
-    <col min="23" max="23" width="30.83203125" customWidth="1"/>
-    <col min="24" max="25" width="23.33203125" customWidth="1"/>
-    <col min="26" max="28" width="15.83203125" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" customWidth="1"/>
-    <col min="30" max="30" width="27.83203125" customWidth="1"/>
-    <col min="31" max="31" width="33.83203125" customWidth="1"/>
-    <col min="32" max="32" width="38.33203125" customWidth="1"/>
-    <col min="33" max="33" width="32.33203125" customWidth="1"/>
-    <col min="34" max="34" width="35.33203125" customWidth="1"/>
-    <col min="35" max="35" width="23.33203125" customWidth="1"/>
-    <col min="36" max="36" width="44.33203125" customWidth="1"/>
-    <col min="37" max="37" width="32.33203125" customWidth="1"/>
-    <col min="38" max="38" width="35.33203125" customWidth="1"/>
-    <col min="39" max="39" width="36.83203125" customWidth="1"/>
-    <col min="40" max="40" width="24.83203125" customWidth="1"/>
-    <col min="41" max="42" width="15.83203125" customWidth="1"/>
-    <col min="43" max="43" width="27.83203125" customWidth="1"/>
-    <col min="44" max="44" width="33.83203125" customWidth="1"/>
-    <col min="45" max="45" width="20.33203125" customWidth="1"/>
-    <col min="46" max="48" width="15.83203125" customWidth="1"/>
-    <col min="49" max="49" width="18.83203125" customWidth="1"/>
-    <col min="50" max="50" width="35.33203125" customWidth="1"/>
-    <col min="51" max="51" width="33.83203125" customWidth="1"/>
-    <col min="52" max="53" width="27.83203125" customWidth="1"/>
-    <col min="54" max="54" width="21.83203125" customWidth="1"/>
-    <col min="55" max="55" width="33.83203125" customWidth="1"/>
-    <col min="56" max="56" width="27.83203125" customWidth="1"/>
-    <col min="57" max="57" width="23.33203125" customWidth="1"/>
-    <col min="58" max="58" width="50.33203125" customWidth="1"/>
-    <col min="59" max="59" width="24.83203125" customWidth="1"/>
-    <col min="60" max="60" width="21.83203125" customWidth="1"/>
-    <col min="61" max="61" width="27.83203125" customWidth="1"/>
-    <col min="62" max="62" width="33.83203125" customWidth="1"/>
-    <col min="63" max="63" width="36.83203125" customWidth="1"/>
-    <col min="64" max="64" width="39.83203125" customWidth="1"/>
-    <col min="65" max="65" width="33.83203125" customWidth="1"/>
-    <col min="66" max="66" width="36.83203125" customWidth="1"/>
-    <col min="67" max="68" width="39.83203125" customWidth="1"/>
-    <col min="69" max="69" width="30.83203125" customWidth="1"/>
-    <col min="70" max="70" width="32.33203125" customWidth="1"/>
-    <col min="71" max="71" width="26.33203125" customWidth="1"/>
-    <col min="72" max="74" width="15.83203125" customWidth="1"/>
-    <col min="75" max="75" width="17.33203125" customWidth="1"/>
-    <col min="76" max="76" width="33.83203125" customWidth="1"/>
-    <col min="77" max="77" width="29.33203125" customWidth="1"/>
-    <col min="78" max="78" width="32.33203125" customWidth="1"/>
-    <col min="79" max="79" width="36.83203125" customWidth="1"/>
-    <col min="80" max="80" width="29.33203125" customWidth="1"/>
-    <col min="81" max="81" width="21.83203125" customWidth="1"/>
-    <col min="82" max="82" width="36.83203125" customWidth="1"/>
-    <col min="83" max="83" width="20.33203125" customWidth="1"/>
-    <col min="84" max="84" width="23.33203125" customWidth="1"/>
-    <col min="85" max="85" width="30.83203125" customWidth="1"/>
-    <col min="86" max="86" width="32.33203125" customWidth="1"/>
-    <col min="87" max="87" width="24.83203125" customWidth="1"/>
-    <col min="88" max="89" width="30.83203125" customWidth="1"/>
-    <col min="90" max="90" width="15.83203125" customWidth="1"/>
-    <col min="91" max="91" width="20.33203125" customWidth="1"/>
-    <col min="92" max="92" width="15.83203125" customWidth="1"/>
-    <col min="93" max="93" width="30.83203125" customWidth="1"/>
-    <col min="94" max="94" width="17.33203125" customWidth="1"/>
-    <col min="95" max="95" width="20.33203125" customWidth="1"/>
-    <col min="96" max="96" width="21.83203125" customWidth="1"/>
-    <col min="97" max="99" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.84765625" customWidth="1"/>
+    <col min="2" max="2" width="21.84765625" customWidth="1"/>
+    <col min="3" max="3" width="15.84765625" customWidth="1"/>
+    <col min="4" max="4" width="29.34765625" customWidth="1"/>
+    <col min="5" max="5" width="15.84765625" customWidth="1"/>
+    <col min="6" max="6" width="17.34765625" customWidth="1"/>
+    <col min="7" max="7" width="15.84765625" customWidth="1"/>
+    <col min="8" max="8" width="24.84765625" customWidth="1"/>
+    <col min="9" max="13" width="15.84765625" customWidth="1"/>
+    <col min="14" max="14" width="17.34765625" customWidth="1"/>
+    <col min="15" max="15" width="33.84765625" customWidth="1"/>
+    <col min="16" max="16" width="15.84765625" customWidth="1"/>
+    <col min="17" max="17" width="23.34765625" customWidth="1"/>
+    <col min="18" max="18" width="15.84765625" customWidth="1"/>
+    <col min="19" max="20" width="23.34765625" customWidth="1"/>
+    <col min="21" max="21" width="24.84765625" customWidth="1"/>
+    <col min="22" max="22" width="38.34765625" customWidth="1"/>
+    <col min="23" max="23" width="30.84765625" customWidth="1"/>
+    <col min="24" max="25" width="23.34765625" customWidth="1"/>
+    <col min="26" max="28" width="15.84765625" customWidth="1"/>
+    <col min="29" max="29" width="17.34765625" customWidth="1"/>
+    <col min="30" max="30" width="27.84765625" customWidth="1"/>
+    <col min="31" max="31" width="33.84765625" customWidth="1"/>
+    <col min="32" max="32" width="38.34765625" customWidth="1"/>
+    <col min="33" max="33" width="32.34765625" customWidth="1"/>
+    <col min="34" max="34" width="35.34765625" customWidth="1"/>
+    <col min="35" max="35" width="23.34765625" customWidth="1"/>
+    <col min="36" max="36" width="44.34765625" customWidth="1"/>
+    <col min="37" max="37" width="32.34765625" customWidth="1"/>
+    <col min="38" max="38" width="35.34765625" customWidth="1"/>
+    <col min="39" max="39" width="36.84765625" customWidth="1"/>
+    <col min="40" max="40" width="24.84765625" customWidth="1"/>
+    <col min="41" max="42" width="15.84765625" customWidth="1"/>
+    <col min="43" max="43" width="27.84765625" customWidth="1"/>
+    <col min="44" max="44" width="33.84765625" customWidth="1"/>
+    <col min="45" max="45" width="20.34765625" customWidth="1"/>
+    <col min="46" max="48" width="15.84765625" customWidth="1"/>
+    <col min="49" max="49" width="18.84765625" customWidth="1"/>
+    <col min="50" max="50" width="35.34765625" customWidth="1"/>
+    <col min="51" max="51" width="33.84765625" customWidth="1"/>
+    <col min="52" max="53" width="27.84765625" customWidth="1"/>
+    <col min="54" max="54" width="21.84765625" customWidth="1"/>
+    <col min="55" max="55" width="33.84765625" customWidth="1"/>
+    <col min="56" max="56" width="27.84765625" customWidth="1"/>
+    <col min="57" max="57" width="23.34765625" customWidth="1"/>
+    <col min="58" max="58" width="50.34765625" customWidth="1"/>
+    <col min="59" max="59" width="24.84765625" customWidth="1"/>
+    <col min="60" max="60" width="21.84765625" customWidth="1"/>
+    <col min="61" max="61" width="27.84765625" customWidth="1"/>
+    <col min="62" max="62" width="33.84765625" customWidth="1"/>
+    <col min="63" max="63" width="36.84765625" customWidth="1"/>
+    <col min="64" max="64" width="39.84765625" customWidth="1"/>
+    <col min="65" max="65" width="33.84765625" customWidth="1"/>
+    <col min="66" max="66" width="36.84765625" customWidth="1"/>
+    <col min="67" max="68" width="39.84765625" customWidth="1"/>
+    <col min="69" max="69" width="30.84765625" customWidth="1"/>
+    <col min="70" max="70" width="32.34765625" customWidth="1"/>
+    <col min="71" max="71" width="26.34765625" customWidth="1"/>
+    <col min="72" max="74" width="15.84765625" customWidth="1"/>
+    <col min="75" max="75" width="17.34765625" customWidth="1"/>
+    <col min="76" max="76" width="33.84765625" customWidth="1"/>
+    <col min="77" max="77" width="29.34765625" customWidth="1"/>
+    <col min="78" max="78" width="32.34765625" customWidth="1"/>
+    <col min="79" max="79" width="36.84765625" customWidth="1"/>
+    <col min="80" max="80" width="29.34765625" customWidth="1"/>
+    <col min="81" max="81" width="21.84765625" customWidth="1"/>
+    <col min="82" max="82" width="36.84765625" customWidth="1"/>
+    <col min="83" max="83" width="20.34765625" customWidth="1"/>
+    <col min="84" max="84" width="23.34765625" customWidth="1"/>
+    <col min="85" max="85" width="30.84765625" customWidth="1"/>
+    <col min="86" max="86" width="32.34765625" customWidth="1"/>
+    <col min="87" max="87" width="24.84765625" customWidth="1"/>
+    <col min="88" max="89" width="30.84765625" customWidth="1"/>
+    <col min="90" max="90" width="15.84765625" customWidth="1"/>
+    <col min="91" max="91" width="20.34765625" customWidth="1"/>
+    <col min="92" max="92" width="15.84765625" customWidth="1"/>
+    <col min="93" max="93" width="30.84765625" customWidth="1"/>
+    <col min="94" max="94" width="17.34765625" customWidth="1"/>
+    <col min="95" max="95" width="20.34765625" customWidth="1"/>
+    <col min="96" max="96" width="21.84765625" customWidth="1"/>
+    <col min="97" max="99" width="15.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,603 +1211,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2500300</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2">
-        <v>502272</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="1">
-        <v>531889</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="1">
-        <v>408178</v>
-      </c>
-      <c r="O2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>408178</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>137</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>408178</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>143</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>107</v>
-      </c>
+    <row r="2" spans="1:99" x14ac:dyDescent="0.6">
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="CP2" s="1"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2500301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3">
-        <v>503656</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="1">
-        <v>565707</v>
-      </c>
-      <c r="L3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="1">
-        <v>209829</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>209829</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>167</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>209829</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>143</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="CP4" s="1"/>
+    <row r="3" spans="1:99" x14ac:dyDescent="0.6">
+      <c r="K3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="CP3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
